--- a/output/fit_clients/fit_round_180.xlsx
+++ b/output/fit_clients/fit_round_180.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2321497037.373918</v>
+        <v>2090286446.394947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08985562900708485</v>
+        <v>0.09028665219640072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03417520025536342</v>
+        <v>0.04114677053828276</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1160748557.51555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1808075482.808809</v>
+        <v>2270978343.860018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1775730887334556</v>
+        <v>0.1204358033249575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04001739286542266</v>
+        <v>0.04396066087867679</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>904037751.7136737</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4261082970.867066</v>
+        <v>4429082851.254007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1387418688406849</v>
+        <v>0.161026614717528</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03728970670907985</v>
+        <v>0.03051251596589038</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2130541518.077842</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3022065312.814434</v>
+        <v>3967583736.992935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07482492380605751</v>
+        <v>0.105620128221455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03507026075905888</v>
+        <v>0.03218533659334241</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>68</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1511032724.793377</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2094955515.413925</v>
+        <v>2652447926.191716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1280436316650718</v>
+        <v>0.1309657322665724</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05671478014461977</v>
+        <v>0.05681620756807736</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1047477777.003162</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2712440455.119443</v>
+        <v>2060336681.927758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08325525117109797</v>
+        <v>0.09475057542984894</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04706362557319343</v>
+        <v>0.04788623336746021</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1356220220.082344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3752666036.719182</v>
+        <v>3700870762.196078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1670363263214444</v>
+        <v>0.2092806028974011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02935499343217659</v>
+        <v>0.02045226811865528</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1876333152.781999</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1930418326.547238</v>
+        <v>1431861259.786671</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1426221162776672</v>
+        <v>0.1260518380490173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02718878269555638</v>
+        <v>0.03662584798647425</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>965209199.5086495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4206624809.835188</v>
+        <v>5040070706.483598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1977642296773269</v>
+        <v>0.1981001443667115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04300430542380269</v>
+        <v>0.04510324364887754</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>76</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2103312442.775074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3428212936.819115</v>
+        <v>4264101852.716483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.165094139236725</v>
+        <v>0.1366654389849674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0310754558998572</v>
+        <v>0.03418912578390387</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>74</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1714106441.172314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2558519990.056045</v>
+        <v>3009626420.60542</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1275506927452308</v>
+        <v>0.1656481660296074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05002443104749926</v>
+        <v>0.0371761032724227</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>64</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1279259972.588098</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4611021263.292112</v>
+        <v>3959039202.896502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07530893224450852</v>
+        <v>0.07213170416514436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02209547974523152</v>
+        <v>0.02326663980044292</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2305510655.517167</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3220981612.525054</v>
+        <v>3059419327.198066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1429917482969654</v>
+        <v>0.1351298748781911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04432444473779087</v>
+        <v>0.04033773772021693</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1610490824.678105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1343875561.97792</v>
+        <v>1794775788.756498</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06711181291079883</v>
+        <v>0.06853454309295601</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04610412139467845</v>
+        <v>0.04709393216506427</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>671937831.0666565</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2700551470.801739</v>
+        <v>2705585936.73921</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1137677468979372</v>
+        <v>0.08186530210202596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03281986998600685</v>
+        <v>0.04359933288861444</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1350275748.264506</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5106805057.296173</v>
+        <v>4531112343.74706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1206810961145834</v>
+        <v>0.1502284272623381</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0367413029687692</v>
+        <v>0.0509978261783027</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2553402508.466841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2980853872.89749</v>
+        <v>3606830326.8778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1585382867973282</v>
+        <v>0.1724655367290173</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03036302129895845</v>
+        <v>0.02489332816602776</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>59</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1490426968.07004</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>946506446.210811</v>
+        <v>936992230.6223545</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1727674144041331</v>
+        <v>0.1393299996671073</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02422161792462785</v>
+        <v>0.0253689764684089</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>473253239.3031246</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2099478285.821391</v>
+        <v>2581899943.421776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1195908866084308</v>
+        <v>0.1076835197087443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02561550225762399</v>
+        <v>0.02313691123768166</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1049739158.639654</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2078434448.736985</v>
+        <v>1648790449.933112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08723710368275323</v>
+        <v>0.08932423014266605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04177476827876234</v>
+        <v>0.03086262815960567</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1039217252.793128</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2920475047.73802</v>
+        <v>3293103772.273903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1182688412841199</v>
+        <v>0.1065917273047428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04335090626423514</v>
+        <v>0.05589215185512934</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1460237590.139203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1359948639.354247</v>
+        <v>967643727.9452255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1463574714472442</v>
+        <v>0.1763004938314331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0388365739083568</v>
+        <v>0.03802072004929757</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>679974329.1883281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3390737138.697958</v>
+        <v>3060936630.065987</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1497988999256145</v>
+        <v>0.1241021836045627</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02270821671139127</v>
+        <v>0.02775376943356606</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>52</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1695368578.282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1131197757.856733</v>
+        <v>1424550825.512778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07976488170024465</v>
+        <v>0.09327932395797219</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02958636960742276</v>
+        <v>0.0301408026133904</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>565598912.7045147</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1209670280.890376</v>
+        <v>1135512089.601951</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1225284705592062</v>
+        <v>0.116934504998755</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0324119137887174</v>
+        <v>0.02525820594926698</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>604835163.8046699</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3833457807.685821</v>
+        <v>3929895458.900878</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1357296808068934</v>
+        <v>0.0978068210707837</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01809228876258407</v>
+        <v>0.02139524397542831</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1916728922.225736</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3613848524.91978</v>
+        <v>2382039888.874757</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120174607160591</v>
+        <v>0.1141635362393118</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0469305255452152</v>
+        <v>0.03233644334264035</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1806924326.943206</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5850066794.913545</v>
+        <v>3623215462.418898</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1047060418376823</v>
+        <v>0.1120517959496548</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04247762880464521</v>
+        <v>0.04184467414324789</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2925033286.13229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2027918667.849518</v>
+        <v>1517431514.055573</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1238041344065532</v>
+        <v>0.1164603141974909</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03838276153856839</v>
+        <v>0.02712312005408317</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1013959374.513044</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1199169380.299536</v>
+        <v>1044473393.373623</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08409308782134806</v>
+        <v>0.06895131481992839</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04424734092824814</v>
+        <v>0.04428613850982292</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>599584641.7886591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1316659121.255198</v>
+        <v>1362475100.196571</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07513586168311266</v>
+        <v>0.1144284520457641</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02897581140909242</v>
+        <v>0.02468340341388622</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>658329590.9925909</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2995320802.392342</v>
+        <v>2893721649.866129</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1381796178507433</v>
+        <v>0.1955310077941918</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03927042519237771</v>
+        <v>0.03997513524262281</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1497660397.193176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1202439076.559818</v>
+        <v>1117572109.095678</v>
       </c>
       <c r="F34" t="n">
-        <v>0.108439689854722</v>
+        <v>0.1094577066438589</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02777771865503173</v>
+        <v>0.02278522298326262</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>601219542.891672</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>940996275.6245281</v>
+        <v>822379431.4720247</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1148244514795306</v>
+        <v>0.08548047843852122</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03915308887906083</v>
+        <v>0.0320469950187201</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>470498169.3088868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3111776630.651974</v>
+        <v>3213643889.461091</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1453915381461419</v>
+        <v>0.1468613543247968</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0223018879974049</v>
+        <v>0.02536877798082908</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1555888288.268287</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1800518439.648143</v>
+        <v>2364338012.127705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07807940261051495</v>
+        <v>0.07532449476360582</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03923900170667816</v>
+        <v>0.04019006967444468</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>900259219.6416416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2161489365.978592</v>
+        <v>1547851542.305871</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09892868597550648</v>
+        <v>0.1058441808410321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03628035796636898</v>
+        <v>0.0344716711317634</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1080744638.77888</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2021430830.019892</v>
+        <v>2074144129.728697</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1202604170783692</v>
+        <v>0.1646113594766788</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02543003382176107</v>
+        <v>0.03242129567559127</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1010715406.288105</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1194086944.299767</v>
+        <v>1163581949.726926</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1490994358899515</v>
+        <v>0.1022323262200269</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0418165190531638</v>
+        <v>0.03851570382258005</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>597043514.9023669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2283919702.623384</v>
+        <v>2367170189.167643</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1442927512703052</v>
+        <v>0.1377847588560238</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04329830390583569</v>
+        <v>0.03915252081126141</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1141959897.68603</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3264418771.601946</v>
+        <v>3483228644.60117</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09518762156435007</v>
+        <v>0.1180282094533033</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03085910641287747</v>
+        <v>0.0298649605737131</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1632209364.403488</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2092711291.770662</v>
+        <v>2960085845.325926</v>
       </c>
       <c r="F43" t="n">
-        <v>0.167159630428957</v>
+        <v>0.1463236193012939</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02107289584831286</v>
+        <v>0.02173425922020525</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>62</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1046355735.482974</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1619727408.527427</v>
+        <v>1953585613.254587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0782918976780845</v>
+        <v>0.07810171756334025</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03239873928363821</v>
+        <v>0.03444009381882481</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>809863734.6965507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2119167322.846852</v>
+        <v>2054199020.28884</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1395841737641154</v>
+        <v>0.1446197856015607</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0467765422701095</v>
+        <v>0.04140590234177476</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1059583664.255059</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3716603004.83763</v>
+        <v>5645106261.562615</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1460504906227511</v>
+        <v>0.1744428860370824</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0576493460355572</v>
+        <v>0.03986128111623764</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1858301455.696923</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5045594176.506887</v>
+        <v>3265966118.353839</v>
       </c>
       <c r="F47" t="n">
-        <v>0.180101271702053</v>
+        <v>0.1338593069321384</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0421481557944705</v>
+        <v>0.03654183596500021</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2522797146.601018</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3224790907.313061</v>
+        <v>3753726447.043835</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07026197684665318</v>
+        <v>0.1071008993489312</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03078860232620789</v>
+        <v>0.03083426300671594</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>62</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1612395533.034207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1536499962.361346</v>
+        <v>1672712662.344934</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1229478252174093</v>
+        <v>0.1409716568424046</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04052990659303463</v>
+        <v>0.04264805802950616</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>768250007.5028281</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2817666202.238859</v>
+        <v>3086423368.957754</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1539640438573521</v>
+        <v>0.131016144703835</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04084056253739869</v>
+        <v>0.05254637892113685</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>61</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1408833173.898666</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1173125788.307184</v>
+        <v>1098317168.607581</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1358437658528884</v>
+        <v>0.1487274624996213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0365856897303081</v>
+        <v>0.05202514413702714</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>586562950.0401973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3957182234.997131</v>
+        <v>4554350801.741744</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09439042404039084</v>
+        <v>0.13616896243667</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06093213126181132</v>
+        <v>0.04163362362475683</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1978591176.46886</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2837290635.670256</v>
+        <v>2404481840.894753</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1782169877971335</v>
+        <v>0.1336179725500094</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0260729193498667</v>
+        <v>0.02879445046532273</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1418645361.445829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4972575630.067206</v>
+        <v>3022173187.950284</v>
       </c>
       <c r="F54" t="n">
-        <v>0.128659878387614</v>
+        <v>0.1362717674023417</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03425656233786386</v>
+        <v>0.03723506095083714</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2486287955.46054</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4256508660.561427</v>
+        <v>3036108851.885158</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1992832273405341</v>
+        <v>0.1568634821550207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03208147304576801</v>
+        <v>0.02057265482053773</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2128254316.472231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1505079077.220686</v>
+        <v>1415499521.693343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1371991757596662</v>
+        <v>0.1233417941991692</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04935438793257674</v>
+        <v>0.04514703088388716</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>752539580.0620733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3233860836.009514</v>
+        <v>4242540040.936223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1642734253420357</v>
+        <v>0.1289000206473721</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02378359225577921</v>
+        <v>0.02260745997237183</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1616930442.021842</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1755888438.155041</v>
+        <v>1445771190.408174</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1309096755424222</v>
+        <v>0.1900276670583756</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03013303825502174</v>
+        <v>0.02763529567398165</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>877944226.8350914</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4464890670.328542</v>
+        <v>4194236789.548921</v>
       </c>
       <c r="F59" t="n">
-        <v>0.118829757667607</v>
+        <v>0.112719763701235</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03983744585154669</v>
+        <v>0.03143195291839169</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2232445288.669046</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2619258661.265416</v>
+        <v>2725073044.2729</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1642065045585381</v>
+        <v>0.1950718877920013</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02993532097281042</v>
+        <v>0.02969250460255827</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1309629361.018318</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3257994391.915156</v>
+        <v>3380340853.577511</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1354249716663336</v>
+        <v>0.1738515602214996</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02662207973157597</v>
+        <v>0.02830643104986706</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>63</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1628997152.071881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1724329969.008545</v>
+        <v>1336824046.776499</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1303803810766033</v>
+        <v>0.1737155005292905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04319532346959477</v>
+        <v>0.03746253451801074</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>862165001.1881853</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5196902382.841418</v>
+        <v>3741517992.52319</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08108561488419126</v>
+        <v>0.09706843178088445</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03599868628947738</v>
+        <v>0.04016676160691899</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2598451200.361525</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4927108075.033067</v>
+        <v>4215861900.07847</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1231891172548401</v>
+        <v>0.1520784302577224</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02876549915827062</v>
+        <v>0.02670353249355722</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>56</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2463554138.562848</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5901515214.192261</v>
+        <v>5705610881.695285</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232316667187785</v>
+        <v>0.1482642150727897</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02270854425692067</v>
+        <v>0.0239858051060832</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>64</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2950757512.193618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4407824136.980456</v>
+        <v>4819830984.509501</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1281568791850442</v>
+        <v>0.1213998994613952</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03605050091271401</v>
+        <v>0.04203587706624993</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2203912063.88083</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2520186510.718682</v>
+        <v>2430539337.608105</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08012122701647961</v>
+        <v>0.07426414026107164</v>
       </c>
       <c r="G67" t="n">
-        <v>0.043854907163881</v>
+        <v>0.03845853276212388</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1260093314.222522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4947272988.107101</v>
+        <v>4817840815.59011</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1180787080694677</v>
+        <v>0.104560341054973</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05056641865498055</v>
+        <v>0.0402103458833236</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2473636547.222177</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2490046678.709532</v>
+        <v>1803715294.626006</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1742608810879517</v>
+        <v>0.1561054470128976</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03834780734141808</v>
+        <v>0.04747321886871434</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1245023407.62356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3627491658.259769</v>
+        <v>2852541393.440446</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08769775445230996</v>
+        <v>0.09587104851600202</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04781188289487503</v>
+        <v>0.04822495939898356</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1813745846.890788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4557403602.869431</v>
+        <v>4946610009.273144</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1485062259377889</v>
+        <v>0.1530820176834645</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02063835243793306</v>
+        <v>0.02912509941917808</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>65</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2278701874.09905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1840870740.832158</v>
+        <v>1984741751.995072</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08602982439932989</v>
+        <v>0.08358277523177399</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05316969242203358</v>
+        <v>0.04163260912984315</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>920435342.4110792</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2268741419.311741</v>
+        <v>3163317933.798616</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1055834333613857</v>
+        <v>0.09953463067830666</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04773597248538081</v>
+        <v>0.04694084994630672</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1134370772.581126</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2695561019.597232</v>
+        <v>3099935143.890848</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1215595792700311</v>
+        <v>0.1740036676615505</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02757049447564544</v>
+        <v>0.03545562058644997</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>61</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1347780601.484489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1927323690.334938</v>
+        <v>2375051788.694591</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1484489641363564</v>
+        <v>0.1499964380279022</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02994765141171961</v>
+        <v>0.03373733373576184</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>963661816.0944513</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3508943604.474375</v>
+        <v>5288102840.684688</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0863666010678026</v>
+        <v>0.09574352533300103</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02083597285359813</v>
+        <v>0.02209907803720991</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1754471766.363161</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1828232976.921225</v>
+        <v>1433189545.88477</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1250341640929263</v>
+        <v>0.1357067473281818</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02441561164389152</v>
+        <v>0.02524145960224161</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>914116524.5882463</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4463304801.71453</v>
+        <v>4760578928.048601</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1198396584800577</v>
+        <v>0.09510756373924284</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0388883774988963</v>
+        <v>0.05339846800100455</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>62</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2231652333.416982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1490776988.794846</v>
+        <v>1851479262.326494</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1387702703761131</v>
+        <v>0.1247131233158195</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03059250702105459</v>
+        <v>0.03526980756872385</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>745388526.9764221</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5444559267.925568</v>
+        <v>4940043293.656834</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07086303906000731</v>
+        <v>0.1080957009728068</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02423107232359943</v>
+        <v>0.03340630727336697</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2722279705.249433</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4897750335.997787</v>
+        <v>3854772351.563975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09272636676358222</v>
+        <v>0.1076309928301878</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03086705476652515</v>
+        <v>0.03077005607521794</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>40</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2448875164.52246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4483951557.691068</v>
+        <v>5340192293.868631</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1460458056486119</v>
+        <v>0.2055538935844971</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02229578142340364</v>
+        <v>0.02173791752945065</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2241975791.576597</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082826663.931912</v>
+        <v>1768970483.23842</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09875130799407818</v>
+        <v>0.1475285822023557</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02993986093816296</v>
+        <v>0.04103434668205273</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1041413327.581137</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1754961270.676178</v>
+        <v>2590032816.796549</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1014329162909234</v>
+        <v>0.1083068664298873</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04320959296023399</v>
+        <v>0.0447458643163441</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>877480676.2131752</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3528080098.267996</v>
+        <v>2700726023.896671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1693507997228341</v>
+        <v>0.1629042573911592</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03987465172728205</v>
+        <v>0.043973468108993</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>68</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1764040167.574653</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2636350626.96637</v>
+        <v>2801936936.638629</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1522817941671543</v>
+        <v>0.1211555051912192</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02503881886007106</v>
+        <v>0.02626789188537349</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1318175429.58984</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212585958.688812</v>
+        <v>1092115028.112889</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1519193834889529</v>
+        <v>0.1631476703345303</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03256826170236539</v>
+        <v>0.03271398964261646</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>606293038.1259378</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3413828431.206886</v>
+        <v>2315718747.577487</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1377282979033451</v>
+        <v>0.1558573288307637</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03640821531646377</v>
+        <v>0.0364560719912297</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>71</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1706914286.912462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3272291163.602918</v>
+        <v>3453419609.829428</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1007421604395586</v>
+        <v>0.1466201678612076</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04155765027025975</v>
+        <v>0.03562404535631927</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1636145599.93655</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1538031691.939245</v>
+        <v>2113847274.917094</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119588638782105</v>
+        <v>0.1214409460807438</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05407134113452715</v>
+        <v>0.05078781558133117</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>769015831.6646978</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1988105626.695513</v>
+        <v>1486888325.247746</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1758315795401996</v>
+        <v>0.1768021051655785</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05943325132789268</v>
+        <v>0.05022846339197434</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>994052787.1516808</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2233030130.865189</v>
+        <v>1917016881.66257</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1072441936073014</v>
+        <v>0.07335154264444188</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0415577491254206</v>
+        <v>0.0401119496523915</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>44</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1116515029.197044</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4756848704.575721</v>
+        <v>3871641750.324922</v>
       </c>
       <c r="F93" t="n">
-        <v>0.119079277012002</v>
+        <v>0.1162794366944171</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04193298865212026</v>
+        <v>0.04186292264209779</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2378424303.942354</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2093875234.08253</v>
+        <v>1742239289.786363</v>
       </c>
       <c r="F94" t="n">
-        <v>0.126958614339914</v>
+        <v>0.1427028058635237</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04296417907325347</v>
+        <v>0.04315137574709455</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1046937627.55817</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2409263184.493263</v>
+        <v>2089584853.75883</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1063153782115433</v>
+        <v>0.1045025883169479</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04862486310849993</v>
+        <v>0.03991880372687839</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1204631634.941147</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2390252441.115749</v>
+        <v>1819851187.958996</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1153644890314214</v>
+        <v>0.085561466268439</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02922009208082663</v>
+        <v>0.02980898759948647</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1195126165.839844</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5013124998.858603</v>
+        <v>4456791821.885144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.153789443863074</v>
+        <v>0.1732785033235203</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02086385642996302</v>
+        <v>0.02449337135810031</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2506562637.256472</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3746108730.392563</v>
+        <v>2412496941.132057</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09567784880431952</v>
+        <v>0.1170189675831551</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01998350451351002</v>
+        <v>0.03262818636051387</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>47</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1873054400.449534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2248746849.889255</v>
+        <v>3090746614.571765</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09716875457149635</v>
+        <v>0.1350879715768265</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02914678324625998</v>
+        <v>0.02170292879794969</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1124373356.409204</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4406690879.735845</v>
+        <v>3970601285.413367</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1341252985760235</v>
+        <v>0.1662789016122241</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01964111131980294</v>
+        <v>0.02811059328699111</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2203345542.986118</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3358228236.430387</v>
+        <v>2529732892.122913</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1370942906378732</v>
+        <v>0.1647806688697021</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04229029336339886</v>
+        <v>0.04827606183379714</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>73</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1679114254.562563</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_180.xlsx
+++ b/output/fit_clients/fit_round_180.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2090286446.394947</v>
+        <v>2094154343.587977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09028665219640072</v>
+        <v>0.08214541846894155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04114677053828276</v>
+        <v>0.03717238899796486</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2270978343.860018</v>
+        <v>1894955621.483846</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1204358033249575</v>
+        <v>0.137263494601986</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04396066087867679</v>
+        <v>0.03784157002491409</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4429082851.254007</v>
+        <v>5151732119.897624</v>
       </c>
       <c r="F4" t="n">
-        <v>0.161026614717528</v>
+        <v>0.1503943353081605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03051251596589038</v>
+        <v>0.02924060341125232</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3967583736.992935</v>
+        <v>2815633652.811846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105620128221455</v>
+        <v>0.1075448696049744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03218533659334241</v>
+        <v>0.04692823135296345</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2652447926.191716</v>
+        <v>2737262171.065461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1309657322665724</v>
+        <v>0.1146037456970888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05681620756807736</v>
+        <v>0.03831169770439127</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2060336681.927758</v>
+        <v>2216146738.886157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09475057542984894</v>
+        <v>0.06968636466283545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04788623336746021</v>
+        <v>0.04962065959157048</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3700870762.196078</v>
+        <v>3609975707.512138</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2092806028974011</v>
+        <v>0.2162416042202445</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02045226811865528</v>
+        <v>0.0261564095422416</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1431861259.786671</v>
+        <v>2273472078.60523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1260518380490173</v>
+        <v>0.1645727060067483</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03662584798647425</v>
+        <v>0.03391460975604711</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5040070706.483598</v>
+        <v>5744984191.424411</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1981001443667115</v>
+        <v>0.1376985137003537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04510324364887754</v>
+        <v>0.05350874552334725</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4264101852.716483</v>
+        <v>2733075038.266406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1366654389849674</v>
+        <v>0.1870702958805273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03418912578390387</v>
+        <v>0.03717605941903776</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3009626420.60542</v>
+        <v>3316982120.140813</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1656481660296074</v>
+        <v>0.1466765696061559</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0371761032724227</v>
+        <v>0.04608212692155862</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3959039202.896502</v>
+        <v>3782001539.056178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07213170416514436</v>
+        <v>0.07921143366778446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02326663980044292</v>
+        <v>0.02784582947033964</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3059419327.198066</v>
+        <v>3266465563.76322</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1351298748781911</v>
+        <v>0.1721093068978712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04033773772021693</v>
+        <v>0.03956588068958689</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1794775788.756498</v>
+        <v>1488821237.935037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06853454309295601</v>
+        <v>0.07657914906670155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04709393216506427</v>
+        <v>0.04850407665431612</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2705585936.73921</v>
+        <v>2002097074.671863</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08186530210202596</v>
+        <v>0.07861143155207181</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04359933288861444</v>
+        <v>0.04893108413347745</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4531112343.74706</v>
+        <v>5067327553.547367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1502284272623381</v>
+        <v>0.1584686047213152</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0509978261783027</v>
+        <v>0.05229336522535644</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3606830326.8778</v>
+        <v>2548476975.395231</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1724655367290173</v>
+        <v>0.1233697130813507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02489332816602776</v>
+        <v>0.03194468819243505</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>936992230.6223545</v>
+        <v>1356898476.217916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1393299996671073</v>
+        <v>0.1897774235865926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0253689764684089</v>
+        <v>0.01882806726339834</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2581899943.421776</v>
+        <v>2710274393.397785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1076835197087443</v>
+        <v>0.1251751548664682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02313691123768166</v>
+        <v>0.01955812470747746</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1648790449.933112</v>
+        <v>1926257450.91645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08932423014266605</v>
+        <v>0.06479051791663443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03086262815960567</v>
+        <v>0.03113411465735188</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3293103772.273903</v>
+        <v>3874345859.010185</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1065917273047428</v>
+        <v>0.1006570006410504</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05589215185512934</v>
+        <v>0.04964366340846321</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>967643727.9452255</v>
+        <v>1385635279.180968</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1763004938314331</v>
+        <v>0.1300801288784824</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03802072004929757</v>
+        <v>0.03492681309527571</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3060936630.065987</v>
+        <v>2531616580.800414</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1241021836045627</v>
+        <v>0.1047509515632944</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02775376943356606</v>
+        <v>0.03401150057061355</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1424550825.512778</v>
+        <v>1233427293.728267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09327932395797219</v>
+        <v>0.1032777008378408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0301408026133904</v>
+        <v>0.02868298918521325</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1135512089.601951</v>
+        <v>1426277270.787667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.116934504998755</v>
+        <v>0.1208225674799906</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02525820594926698</v>
+        <v>0.02787695767505253</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3929895458.900878</v>
+        <v>3678100449.0568</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0978068210707837</v>
+        <v>0.1540792996672431</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02139524397542831</v>
+        <v>0.019617199710579</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2382039888.874757</v>
+        <v>3381550476.478817</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1141635362393118</v>
+        <v>0.1101469183092517</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03233644334264035</v>
+        <v>0.04511872608040132</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3623215462.418898</v>
+        <v>3686470527.318265</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1120517959496548</v>
+        <v>0.134686584139523</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04184467414324789</v>
+        <v>0.03477588302100323</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1517431514.055573</v>
+        <v>1948136242.012226</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1164603141974909</v>
+        <v>0.08675617196704168</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02712312005408317</v>
+        <v>0.02556847354906776</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1044473393.373623</v>
+        <v>938322255.8913742</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06895131481992839</v>
+        <v>0.0905239071286251</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04428613850982292</v>
+        <v>0.04235113921931523</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1362475100.196571</v>
+        <v>1410795528.061166</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1144284520457641</v>
+        <v>0.09511025113908443</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02468340341388622</v>
+        <v>0.03511065664066534</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2893721649.866129</v>
+        <v>2323038953.83461</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1955310077941918</v>
+        <v>0.1727212260689005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03997513524262281</v>
+        <v>0.04471505535992638</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1117572109.095678</v>
+        <v>1359912005.027277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1094577066438589</v>
+        <v>0.1129934397393105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02278522298326262</v>
+        <v>0.02570525095707226</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>822379431.4720247</v>
+        <v>913179377.4067094</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08548047843852122</v>
+        <v>0.08320258934408024</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0320469950187201</v>
+        <v>0.02774196518598866</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3213643889.461091</v>
+        <v>2000173248.760581</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1468613543247968</v>
+        <v>0.178343888107346</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02536877798082908</v>
+        <v>0.02168791905534495</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2364338012.127705</v>
+        <v>2235048219.963734</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07532449476360582</v>
+        <v>0.08101726777432917</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04019006967444468</v>
+        <v>0.02807207958497197</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1547851542.305871</v>
+        <v>1811466272.937731</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1058441808410321</v>
+        <v>0.1150700109251771</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0344716711317634</v>
+        <v>0.02918502524063425</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2074144129.728697</v>
+        <v>1521523173.46114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1646113594766788</v>
+        <v>0.1463496163347651</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03242129567559127</v>
+        <v>0.03083557138753599</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1163581949.726926</v>
+        <v>1548596340.498276</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1022323262200269</v>
+        <v>0.1453206295550502</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03851570382258005</v>
+        <v>0.05137265479985404</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2367170189.167643</v>
+        <v>2278745263.49456</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1377847588560238</v>
+        <v>0.1421767234823112</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03915252081126141</v>
+        <v>0.03522586475942811</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3483228644.60117</v>
+        <v>3455623266.072</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1180282094533033</v>
+        <v>0.1055151378051414</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0298649605737131</v>
+        <v>0.04536501059060898</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2960085845.325926</v>
+        <v>2494359406.892686</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1463236193012939</v>
+        <v>0.1934346865639419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02173425922020525</v>
+        <v>0.02146667456066533</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1953585613.254587</v>
+        <v>1687087317.191374</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07810171756334025</v>
+        <v>0.08625222780067134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03444009381882481</v>
+        <v>0.02691575834313405</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2054199020.28884</v>
+        <v>1574833467.270001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1446197856015607</v>
+        <v>0.1813154605871653</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04140590234177476</v>
+        <v>0.04660307146389556</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5645106261.562615</v>
+        <v>4591298707.261144</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744428860370824</v>
+        <v>0.1330953505354391</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03986128111623764</v>
+        <v>0.04390927533705188</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3265966118.353839</v>
+        <v>3422947292.257867</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1338593069321384</v>
+        <v>0.1851533976341547</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03654183596500021</v>
+        <v>0.0597713379427267</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3753726447.043835</v>
+        <v>3103514775.407187</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1071008993489312</v>
+        <v>0.08971015742000489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03083426300671594</v>
+        <v>0.03621971917798916</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672712662.344934</v>
+        <v>1973850946.001623</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1409716568424046</v>
+        <v>0.1530707008978613</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04264805802950616</v>
+        <v>0.04015116169037045</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3086423368.957754</v>
+        <v>3415296517.90965</v>
       </c>
       <c r="F50" t="n">
-        <v>0.131016144703835</v>
+        <v>0.1661486546568518</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05254637892113685</v>
+        <v>0.04206426984576655</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1098317168.607581</v>
+        <v>1487938831.104081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1487274624996213</v>
+        <v>0.1698671224605474</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05202514413702714</v>
+        <v>0.03751774326076399</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4554350801.741744</v>
+        <v>5203362914.412096</v>
       </c>
       <c r="F52" t="n">
-        <v>0.13616896243667</v>
+        <v>0.0938798249342133</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04163362362475683</v>
+        <v>0.04122810239079756</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2404481840.894753</v>
+        <v>2357622264.2718</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1336179725500094</v>
+        <v>0.1398894421419936</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02879445046532273</v>
+        <v>0.03423101621975769</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3022173187.950284</v>
+        <v>3382566697.401245</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1362717674023417</v>
+        <v>0.1326121043472911</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03723506095083714</v>
+        <v>0.04931851393558814</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3036108851.885158</v>
+        <v>4162081434.899894</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1568634821550207</v>
+        <v>0.1979577531800537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02057265482053773</v>
+        <v>0.02803444405725622</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1415499521.693343</v>
+        <v>1887525557.979351</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1233417941991692</v>
+        <v>0.1467206268637753</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04514703088388716</v>
+        <v>0.0449852907864579</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4242540040.936223</v>
+        <v>4065104761.45452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1289000206473721</v>
+        <v>0.1513983329693034</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02260745997237183</v>
+        <v>0.0214334601573704</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1445771190.408174</v>
+        <v>1592797314.567069</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1900276670583756</v>
+        <v>0.1939735261323</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02763529567398165</v>
+        <v>0.02884450535421393</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4194236789.548921</v>
+        <v>5331583613.027881</v>
       </c>
       <c r="F59" t="n">
-        <v>0.112719763701235</v>
+        <v>0.08785558347186366</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03143195291839169</v>
+        <v>0.03698219075481279</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2725073044.2729</v>
+        <v>2983353819.387808</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1950718877920013</v>
+        <v>0.1648210631370474</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02969250460255827</v>
+        <v>0.02719475349611878</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3380340853.577511</v>
+        <v>3355528866.469727</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1738515602214996</v>
+        <v>0.1293366465706874</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02830643104986706</v>
+        <v>0.02312952945965765</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336824046.776499</v>
+        <v>1736909666.588998</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1737155005292905</v>
+        <v>0.1203225406845923</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03746253451801074</v>
+        <v>0.03235630988743105</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3741517992.52319</v>
+        <v>5001053885.075085</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09706843178088445</v>
+        <v>0.09710300393177763</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04016676160691899</v>
+        <v>0.04153942245356417</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4215861900.07847</v>
+        <v>3524897405.502418</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1520784302577224</v>
+        <v>0.1693206096136861</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02670353249355722</v>
+        <v>0.02379542054264712</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5705610881.695285</v>
+        <v>5924225444.832721</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1482642150727897</v>
+        <v>0.1323795257928616</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0239858051060832</v>
+        <v>0.02211314086002149</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4819830984.509501</v>
+        <v>3812933673.464801</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1213998994613952</v>
+        <v>0.1086835068891918</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04203587706624993</v>
+        <v>0.03507850738898185</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2430539337.608105</v>
+        <v>2395201614.554093</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07426414026107164</v>
+        <v>0.0678461144548896</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03845853276212388</v>
+        <v>0.04736533052545799</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4817840815.59011</v>
+        <v>5777822114.137626</v>
       </c>
       <c r="F68" t="n">
-        <v>0.104560341054973</v>
+        <v>0.1221221759941039</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0402103458833236</v>
+        <v>0.05046895887620773</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1803715294.626006</v>
+        <v>2398360939.856664</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1561054470128976</v>
+        <v>0.1675974488836366</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04747321886871434</v>
+        <v>0.03975833923482129</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2852541393.440446</v>
+        <v>2634290440.130739</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09587104851600202</v>
+        <v>0.06862508161178175</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04822495939898356</v>
+        <v>0.03502710839923377</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4946610009.273144</v>
+        <v>3473191792.869637</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1530820176834645</v>
+        <v>0.1802478726569416</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02912509941917808</v>
+        <v>0.02783490860953433</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1984741751.995072</v>
+        <v>2041978118.715719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08358277523177399</v>
+        <v>0.07895676235603363</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04163260912984315</v>
+        <v>0.043222184667023</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3163317933.798616</v>
+        <v>3175931432.417244</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09953463067830666</v>
+        <v>0.08260864298254537</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04694084994630672</v>
+        <v>0.0330919954032522</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3099935143.890848</v>
+        <v>2823150950.064975</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1740036676615505</v>
+        <v>0.1508530439532535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03545562058644997</v>
+        <v>0.03210933918552569</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2375051788.694591</v>
+        <v>1574841217.67491</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1499964380279022</v>
+        <v>0.10836044967136</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03373733373576184</v>
+        <v>0.02450716966674935</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5288102840.684688</v>
+        <v>4289937075.50585</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09574352533300103</v>
+        <v>0.09050247770371209</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02209907803720991</v>
+        <v>0.02967066925949945</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1433189545.88477</v>
+        <v>1451267784.071733</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1357067473281818</v>
+        <v>0.1749420201269761</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02524145960224161</v>
+        <v>0.02860312375988896</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4760578928.048601</v>
+        <v>3257801876.273796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09510756373924284</v>
+        <v>0.08891556344124854</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05339846800100455</v>
+        <v>0.05550357140490565</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1851479262.326494</v>
+        <v>1496846405.13745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1247131233158195</v>
+        <v>0.1755064580254436</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03526980756872385</v>
+        <v>0.0380486643241266</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4940043293.656834</v>
+        <v>3461002836.271857</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1080957009728068</v>
+        <v>0.1021831702381999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03340630727336697</v>
+        <v>0.03057201918984985</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3854772351.563975</v>
+        <v>3268433384.026948</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1076309928301878</v>
+        <v>0.1063787229372821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03077005607521794</v>
+        <v>0.01997847090803359</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5340192293.868631</v>
+        <v>4277682413.241758</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2055538935844971</v>
+        <v>0.1844454232670268</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02173791752945065</v>
+        <v>0.02331971309425153</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1768970483.23842</v>
+        <v>2071224869.89104</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475285822023557</v>
+        <v>0.1089162040969654</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04103434668205273</v>
+        <v>0.03576388817037244</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2590032816.796549</v>
+        <v>2371783840.117813</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1083068664298873</v>
+        <v>0.09525899706264375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0447458643163441</v>
+        <v>0.03510140265327405</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2700726023.896671</v>
+        <v>3075891405.15476</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629042573911592</v>
+        <v>0.1411987202784943</v>
       </c>
       <c r="G85" t="n">
-        <v>0.043973468108993</v>
+        <v>0.04445242511085811</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2801936936.638629</v>
+        <v>2150507378.615276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1211555051912192</v>
+        <v>0.1317433258583063</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02626789188537349</v>
+        <v>0.02565228018209861</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1092115028.112889</v>
+        <v>1242492392.409792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1631476703345303</v>
+        <v>0.1854760503871647</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03271398964261646</v>
+        <v>0.03219731020390706</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2315718747.577487</v>
+        <v>3188588182.44755</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1558573288307637</v>
+        <v>0.1661151884461582</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0364560719912297</v>
+        <v>0.02807148024202409</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3453419609.829428</v>
+        <v>3174862161.443406</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1466201678612076</v>
+        <v>0.1432312853336172</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03562404535631927</v>
+        <v>0.02651671973161212</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2113847274.917094</v>
+        <v>1739709811.399175</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1214409460807438</v>
+        <v>0.1312087383592664</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05078781558133117</v>
+        <v>0.04115666983435166</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1486888325.247746</v>
+        <v>1558293199.729072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768021051655785</v>
+        <v>0.1759238272714725</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05022846339197434</v>
+        <v>0.04005229653183421</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1917016881.66257</v>
+        <v>2651517524.100835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07335154264444188</v>
+        <v>0.1030931234700648</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0401119496523915</v>
+        <v>0.03676416752141359</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3871641750.324922</v>
+        <v>3765171276.496034</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1162794366944171</v>
+        <v>0.08925255587195211</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04186292264209779</v>
+        <v>0.03372630829985688</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1742239289.786363</v>
+        <v>2204467835.360412</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1427028058635237</v>
+        <v>0.1118544736857137</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04315137574709455</v>
+        <v>0.03322735576160594</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2089584853.75883</v>
+        <v>3114469266.164906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1045025883169479</v>
+        <v>0.09431967856083556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03991880372687839</v>
+        <v>0.05053769206382937</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1819851187.958996</v>
+        <v>2328099220.908237</v>
       </c>
       <c r="F96" t="n">
-        <v>0.085561466268439</v>
+        <v>0.08649014686560426</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02980898759948647</v>
+        <v>0.03964224358302087</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4456791821.885144</v>
+        <v>3834460810.549755</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1732785033235203</v>
+        <v>0.1757539210047026</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02449337135810031</v>
+        <v>0.0274420081341835</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2412496941.132057</v>
+        <v>3231133100.894491</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1170189675831551</v>
+        <v>0.09875727518558948</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03262818636051387</v>
+        <v>0.02600108319745441</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3090746614.571765</v>
+        <v>2535120756.481438</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1350879715768265</v>
+        <v>0.1124324553585502</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02170292879794969</v>
+        <v>0.02420933227412338</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3970601285.413367</v>
+        <v>4541023769.999202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1662789016122241</v>
+        <v>0.1133940549580491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02811059328699111</v>
+        <v>0.01755013350552405</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2529732892.122913</v>
+        <v>3181906531.745843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1647806688697021</v>
+        <v>0.2190023931366817</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04827606183379714</v>
+        <v>0.05312822330914523</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_180.xlsx
+++ b/output/fit_clients/fit_round_180.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2094154343.587977</v>
+        <v>1738694978.109592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08214541846894155</v>
+        <v>0.08440056343666351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03717238899796486</v>
+        <v>0.04430234721193316</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1894955621.483846</v>
+        <v>2395988503.689509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.137263494601986</v>
+        <v>0.1777881866182804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03784157002491409</v>
+        <v>0.03656507546416776</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5151732119.897624</v>
+        <v>3692790984.812865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1503943353081605</v>
+        <v>0.1128054629922962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02924060341125232</v>
+        <v>0.02812678134796481</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>179</v>
+      </c>
+      <c r="K4" t="n">
+        <v>107.9745561081356</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2815633652.811846</v>
+        <v>3714494839.251473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1075448696049744</v>
+        <v>0.08489824439522006</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04692823135296345</v>
+        <v>0.04659140137814553</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>180</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2737262171.065461</v>
+        <v>2054443843.109062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1146037456970888</v>
+        <v>0.1491877201484503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03831169770439127</v>
+        <v>0.0470190894382522</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2216146738.886157</v>
+        <v>2897207062.865189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06968636466283545</v>
+        <v>0.06534297485074476</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04962065959157048</v>
+        <v>0.04945636176536596</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3609975707.512138</v>
+        <v>3634470464.319377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2162416042202445</v>
+        <v>0.1662999451267396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0261564095422416</v>
+        <v>0.02574711200267855</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2273472078.60523</v>
+        <v>1870010817.351388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1645727060067483</v>
+        <v>0.1330063285235728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03391460975604711</v>
+        <v>0.03400594581049035</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5744984191.424411</v>
+        <v>4989868707.527998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1376985137003537</v>
+        <v>0.2080025708277092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05350874552334725</v>
+        <v>0.04972206369085685</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>165</v>
+      </c>
+      <c r="J10" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" t="n">
+        <v>137.4018545529486</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2733075038.266406</v>
+        <v>3031309136.751089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1870702958805273</v>
+        <v>0.1401104063073148</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03717605941903776</v>
+        <v>0.03769285469861854</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>179</v>
+      </c>
+      <c r="K11" t="n">
+        <v>78.83232113645499</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3316982120.140813</v>
+        <v>2743697825.950531</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1466765696061559</v>
+        <v>0.1714088948156784</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04608212692155862</v>
+        <v>0.03409091458502597</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3782001539.056178</v>
+        <v>5153164547.7995</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07921143366778446</v>
+        <v>0.08356944505524402</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02784582947033964</v>
+        <v>0.03122063918986705</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>89</v>
+      </c>
+      <c r="J13" t="n">
+        <v>179</v>
+      </c>
+      <c r="K13" t="n">
+        <v>125.8269788956888</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3266465563.76322</v>
+        <v>3860802917.752051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1721093068978712</v>
+        <v>0.1846416652640913</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03956588068958689</v>
+        <v>0.04140808947291494</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>180</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1488821237.935037</v>
+        <v>1208074111.097899</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07657914906670155</v>
+        <v>0.1083556104025647</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04850407665431612</v>
+        <v>0.03510253851942003</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2002097074.671863</v>
+        <v>1882588280.283557</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07861143155207181</v>
+        <v>0.08503478183288339</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04893108413347745</v>
+        <v>0.04210180050886621</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5067327553.547367</v>
+        <v>4049523201.828455</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1584686047213152</v>
+        <v>0.1546624370962627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05229336522535644</v>
+        <v>0.03852659373282306</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>86</v>
+      </c>
+      <c r="J17" t="n">
+        <v>180</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2548476975.395231</v>
+        <v>3077168486.012986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1233697130813507</v>
+        <v>0.1813157654907857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03194468819243505</v>
+        <v>0.02622793112312983</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1356898476.217916</v>
+        <v>1346373809.084523</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1897774235865926</v>
+        <v>0.1785056303187521</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01882806726339834</v>
+        <v>0.02595392550711561</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2710274393.397785</v>
+        <v>2720457245.88241</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1251751548664682</v>
+        <v>0.1344662274366457</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01955812470747746</v>
+        <v>0.02723476436940145</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1926257450.91645</v>
+        <v>1738945100.266677</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06479051791663443</v>
+        <v>0.08067405633431037</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03113411465735188</v>
+        <v>0.03828698215722846</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3874345859.010185</v>
+        <v>3114860652.121353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1006570006410504</v>
+        <v>0.09310016906151841</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04964366340846321</v>
+        <v>0.04211289746333687</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
+        <v>177</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1385635279.180968</v>
+        <v>936453650.8612049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1300801288784824</v>
+        <v>0.1270185008487532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03492681309527571</v>
+        <v>0.04649935304337485</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2531616580.800414</v>
+        <v>3867499693.97499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1047509515632944</v>
+        <v>0.1432446485274403</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03401150057061355</v>
+        <v>0.02754044297873457</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>179</v>
+      </c>
+      <c r="K24" t="n">
+        <v>108.4986426926865</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1233427293.728267</v>
+        <v>1429335910.440788</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1032777008378408</v>
+        <v>0.08636982808673994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02868298918521325</v>
+        <v>0.02563805552433525</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1426277270.787667</v>
+        <v>1375274320.832245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1208225674799906</v>
+        <v>0.07547472535386256</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02787695767505253</v>
+        <v>0.02991894916535567</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3678100449.0568</v>
+        <v>3211089769.415577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1540792996672431</v>
+        <v>0.1014424777535578</v>
       </c>
       <c r="G27" t="n">
-        <v>0.019617199710579</v>
+        <v>0.01791355962743733</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>71</v>
+      </c>
+      <c r="J27" t="n">
+        <v>176</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3381550476.478817</v>
+        <v>3724513106.957952</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1101469183092517</v>
+        <v>0.1024401045109488</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04511872608040132</v>
+        <v>0.04538942385352581</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>179</v>
+      </c>
+      <c r="K28" t="n">
+        <v>109.2724790923096</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3686470527.318265</v>
+        <v>5110630238.366905</v>
       </c>
       <c r="F29" t="n">
-        <v>0.134686584139523</v>
+        <v>0.1335076494708311</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03477588302100323</v>
+        <v>0.04644872887266251</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>169</v>
+      </c>
+      <c r="J29" t="n">
+        <v>180</v>
+      </c>
+      <c r="K29" t="n">
+        <v>145.4300696534876</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1948136242.012226</v>
+        <v>1910246102.601586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08675617196704168</v>
+        <v>0.113155376647461</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02556847354906776</v>
+        <v>0.03611936426935039</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>938322255.8913742</v>
+        <v>1493152666.722992</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0905239071286251</v>
+        <v>0.07200962999288474</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04235113921931523</v>
+        <v>0.04187946893447263</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410795528.061166</v>
+        <v>1606421672.916718</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09511025113908443</v>
+        <v>0.07478235444712016</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03511065664066534</v>
+        <v>0.034823171619854</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2323038953.83461</v>
+        <v>2497827353.929295</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1727212260689005</v>
+        <v>0.1763420887651842</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04471505535992638</v>
+        <v>0.06036541156951553</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359912005.027277</v>
+        <v>1244776093.549145</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1129934397393105</v>
+        <v>0.1021816149631752</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02570525095707226</v>
+        <v>0.02391268655323816</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913179377.4067094</v>
+        <v>1312493757.065022</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08320258934408024</v>
+        <v>0.07587571471510578</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02774196518598866</v>
+        <v>0.03293629727595506</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2000173248.760581</v>
+        <v>2818746705.091226</v>
       </c>
       <c r="F36" t="n">
-        <v>0.178343888107346</v>
+        <v>0.1789232938370642</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02168791905534495</v>
+        <v>0.02067159674265232</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2235048219.963734</v>
+        <v>2849603645.802399</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08101726777432917</v>
+        <v>0.09958015825104366</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02807207958497197</v>
+        <v>0.04083720756955423</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1811466272.937731</v>
+        <v>1960409384.706075</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150700109251771</v>
+        <v>0.1196564944785733</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02918502524063425</v>
+        <v>0.02561182160153782</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1521523173.46114</v>
+        <v>1954670480.858578</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463496163347651</v>
+        <v>0.150431163214286</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03083557138753599</v>
+        <v>0.02150901193434678</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1548596340.498276</v>
+        <v>1601137131.544004</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1453206295550502</v>
+        <v>0.114593185875985</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05137265479985404</v>
+        <v>0.05575123394412951</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2278745263.49456</v>
+        <v>2605940456.572093</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1421767234823112</v>
+        <v>0.1625385942152987</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03522586475942811</v>
+        <v>0.03297995632092692</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3455623266.072</v>
+        <v>4222906246.276637</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1055151378051414</v>
+        <v>0.1230379471070978</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04536501059060898</v>
+        <v>0.03211697254685675</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>69</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="n">
+        <v>130.4179537345368</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2494359406.892686</v>
+        <v>1894937376.059383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1934346865639419</v>
+        <v>0.1879800608561678</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02146667456066533</v>
+        <v>0.01851801809355659</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1687087317.191374</v>
+        <v>1661952474.474144</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08625222780067134</v>
+        <v>0.07447530061361451</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02691575834313405</v>
+        <v>0.03271819021416311</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1574833467.270001</v>
+        <v>2009405820.609782</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1813154605871653</v>
+        <v>0.1789901434868604</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04660307146389556</v>
+        <v>0.04151124050777047</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4591298707.261144</v>
+        <v>4076817684.414307</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1330953505354391</v>
+        <v>0.169310882218472</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04390927533705188</v>
+        <v>0.04462295762122152</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>102</v>
+      </c>
+      <c r="J46" t="n">
+        <v>179</v>
+      </c>
+      <c r="K46" t="n">
+        <v>129.5327462990253</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3422947292.257867</v>
+        <v>3213844928.455006</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1851533976341547</v>
+        <v>0.1591914278468103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0597713379427267</v>
+        <v>0.04676979097300691</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>80</v>
+      </c>
+      <c r="J47" t="n">
+        <v>178</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3103514775.407187</v>
+        <v>3903761725.458006</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08971015742000489</v>
+        <v>0.07116254731772412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03621971917798916</v>
+        <v>0.03081901282419578</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>82</v>
+      </c>
+      <c r="J48" t="n">
+        <v>180</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1973850946.001623</v>
+        <v>1793860075.246548</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1530707008978613</v>
+        <v>0.1453898677004787</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04015116169037045</v>
+        <v>0.04228385415463051</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3415296517.90965</v>
+        <v>3304010025.255196</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1661486546568518</v>
+        <v>0.154092365184386</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04206426984576655</v>
+        <v>0.04365284310205622</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1487938831.104081</v>
+        <v>1268732084.49412</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1698671224605474</v>
+        <v>0.1787838948508897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03751774326076399</v>
+        <v>0.03696347472094461</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5203362914.412096</v>
+        <v>3425818162.241095</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0938798249342133</v>
+        <v>0.1024394881640964</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04122810239079756</v>
+        <v>0.05914362632460187</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>127</v>
+      </c>
+      <c r="J52" t="n">
+        <v>180</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2357622264.2718</v>
+        <v>2320484085.046562</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1398894421419936</v>
+        <v>0.1912802253357967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03423101621975769</v>
+        <v>0.02806716394847996</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3382566697.401245</v>
+        <v>3985496098.553038</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1326121043472911</v>
+        <v>0.1121737146095744</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04931851393558814</v>
+        <v>0.03895118081242357</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>91</v>
+      </c>
+      <c r="J54" t="n">
+        <v>180</v>
+      </c>
+      <c r="K54" t="n">
+        <v>131.2336136636364</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4162081434.899894</v>
+        <v>3563567833.36178</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1979577531800537</v>
+        <v>0.1454105908535329</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02803444405725622</v>
+        <v>0.03076419676869262</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>81</v>
+      </c>
+      <c r="J55" t="n">
+        <v>180</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1887525557.979351</v>
+        <v>1404938021.245631</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1467206268637753</v>
+        <v>0.1559432022705358</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0449852907864579</v>
+        <v>0.05245566524452628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4065104761.45452</v>
+        <v>3204673168.524721</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1513983329693034</v>
+        <v>0.1803707526252124</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0214334601573704</v>
+        <v>0.02440049995217952</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>73</v>
+      </c>
+      <c r="J57" t="n">
+        <v>179</v>
+      </c>
+      <c r="K57" t="n">
+        <v>80.47673628252502</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1592797314.567069</v>
+        <v>1338307072.728822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1939735261323</v>
+        <v>0.137127275583418</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02884450535421393</v>
+        <v>0.03620351358080373</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5331583613.027881</v>
+        <v>3722562438.89305</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08785558347186366</v>
+        <v>0.0967582247465036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03698219075481279</v>
+        <v>0.04863545640387182</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>86</v>
+      </c>
+      <c r="J59" t="n">
+        <v>180</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2983353819.387808</v>
+        <v>3161958888.131349</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1648210631370474</v>
+        <v>0.1260030793067385</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02719475349611878</v>
+        <v>0.02788429799162987</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3355528866.469727</v>
+        <v>2767381594.049327</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1293366465706874</v>
+        <v>0.1716368364015576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02312952945965765</v>
+        <v>0.02521326136398819</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1736909666.588998</v>
+        <v>1526489685.011943</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1203225406845923</v>
+        <v>0.1668384471994952</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03235630988743105</v>
+        <v>0.04718538729410173</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5001053885.075085</v>
+        <v>4148605240.015725</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09710300393177763</v>
+        <v>0.09041545887081651</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04153942245356417</v>
+        <v>0.04470141325139455</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>88</v>
+      </c>
+      <c r="J63" t="n">
+        <v>180</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3524897405.502418</v>
+        <v>5129332022.52124</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1693206096136861</v>
+        <v>0.1173919231022681</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02379542054264712</v>
+        <v>0.02475356755044426</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>88</v>
+      </c>
+      <c r="J64" t="n">
+        <v>180</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5924225444.832721</v>
+        <v>4336160423.166353</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1323795257928616</v>
+        <v>0.1318480434449351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02211314086002149</v>
+        <v>0.03014878496617442</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>146</v>
+      </c>
+      <c r="J65" t="n">
+        <v>180</v>
+      </c>
+      <c r="K65" t="n">
+        <v>129.9113895554464</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3812933673.464801</v>
+        <v>3592447026.815919</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086835068891918</v>
+        <v>0.1622258561983753</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03507850738898185</v>
+        <v>0.03463358362231139</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>88</v>
+      </c>
+      <c r="J66" t="n">
+        <v>180</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2395201614.554093</v>
+        <v>2522389386.408998</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0678461144548896</v>
+        <v>0.06637836355875336</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04736533052545799</v>
+        <v>0.04054381722767755</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5777822114.137626</v>
+        <v>5794187353.350203</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221221759941039</v>
+        <v>0.1571380082086038</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05046895887620773</v>
+        <v>0.03956738286946274</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>90</v>
+      </c>
+      <c r="J68" t="n">
+        <v>180</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2398360939.856664</v>
+        <v>1917206307.968948</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1675974488836366</v>
+        <v>0.1563683382596111</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03975833923482129</v>
+        <v>0.05220466046935462</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2634290440.130739</v>
+        <v>2732559271.810448</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06862508161178175</v>
+        <v>0.07344262382014774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03502710839923377</v>
+        <v>0.03797946457791335</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3473191792.869637</v>
+        <v>5216939993.702393</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1802478726569416</v>
+        <v>0.123244573185509</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02783490860953433</v>
+        <v>0.02255462789137435</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>141</v>
+      </c>
+      <c r="J71" t="n">
+        <v>180</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2041978118.715719</v>
+        <v>2242860350.292861</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07895676235603363</v>
+        <v>0.07881938400285343</v>
       </c>
       <c r="G72" t="n">
-        <v>0.043222184667023</v>
+        <v>0.04351437732074552</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3175931432.417244</v>
+        <v>2365866839.055222</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08260864298254537</v>
+        <v>0.0836448307209568</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0330919954032522</v>
+        <v>0.04584673221903141</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2823150950.064975</v>
+        <v>2581767993.287432</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1508530439532535</v>
+        <v>0.1363612032466415</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03210933918552569</v>
+        <v>0.03287937921910005</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3080,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1574841217.67491</v>
+        <v>2325446360.843381</v>
       </c>
       <c r="F75" t="n">
-        <v>0.10836044967136</v>
+        <v>0.1575313142094329</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02450716966674935</v>
+        <v>0.02374108854339009</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3115,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4289937075.50585</v>
+        <v>4120153590.240306</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09050247770371209</v>
+        <v>0.1092067374293552</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02967066925949945</v>
+        <v>0.02670327134006632</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>82</v>
+      </c>
+      <c r="J76" t="n">
+        <v>179</v>
+      </c>
+      <c r="K76" t="n">
+        <v>106.7411397612605</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1451267784.071733</v>
+        <v>1407802738.309167</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1749420201269761</v>
+        <v>0.1505823554441183</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02860312375988896</v>
+        <v>0.02832624293888749</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3257801876.273796</v>
+        <v>4760492916.900702</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08891556344124854</v>
+        <v>0.09305378531982821</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05550357140490565</v>
+        <v>0.04024478761773877</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>91</v>
+      </c>
+      <c r="J78" t="n">
+        <v>180</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1496846405.13745</v>
+        <v>1260171776.204807</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1755064580254436</v>
+        <v>0.1740654345705709</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0380486643241266</v>
+        <v>0.02719458665537581</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3461002836.271857</v>
+        <v>5542395132.764966</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1021831702381999</v>
+        <v>0.09171888505630597</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03057201918984985</v>
+        <v>0.02780370784601188</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>88</v>
+      </c>
+      <c r="J80" t="n">
+        <v>179</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.68335395968029</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3268433384.026948</v>
+        <v>3967498283.71025</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1063787229372821</v>
+        <v>0.1219670995209454</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01997847090803359</v>
+        <v>0.03264271949383489</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>83</v>
+      </c>
+      <c r="J81" t="n">
+        <v>179</v>
+      </c>
+      <c r="K81" t="n">
+        <v>110.2676905527775</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3325,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4277682413.241758</v>
+        <v>3548748849.623798</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1844454232670268</v>
+        <v>0.1925715699571749</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02331971309425153</v>
+        <v>0.01843589717340111</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>133</v>
+      </c>
+      <c r="J82" t="n">
+        <v>180</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2071224869.89104</v>
+        <v>1808592548.752949</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1089162040969654</v>
+        <v>0.1036811983389977</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03576388817037244</v>
+        <v>0.03933268811530053</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3401,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2371783840.117813</v>
+        <v>1892630583.554567</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09525899706264375</v>
+        <v>0.09372205165112321</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03510140265327405</v>
+        <v>0.03685237947600353</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3430,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3075891405.15476</v>
+        <v>3135450878.803879</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1411987202784943</v>
+        <v>0.1628645762215218</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04445242511085811</v>
+        <v>0.03660920536341976</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3465,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2150507378.615276</v>
+        <v>1805860811.616392</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1317433258583063</v>
+        <v>0.1100939760829152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02565228018209861</v>
+        <v>0.02359402468296573</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3506,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1242492392.409792</v>
+        <v>1354196233.839861</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1854760503871647</v>
+        <v>0.1249206071380853</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03219731020390706</v>
+        <v>0.03723415425543317</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3541,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3188588182.44755</v>
+        <v>2630626144.47928</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1661151884461582</v>
+        <v>0.1769854790527414</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02807148024202409</v>
+        <v>0.03246014780505895</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>178</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3570,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3174862161.443406</v>
+        <v>2216999037.863879</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1432312853336172</v>
+        <v>0.1023490243326079</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02651671973161212</v>
+        <v>0.03163695953893868</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3605,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1739709811.399175</v>
+        <v>1594202416.137204</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1312087383592664</v>
+        <v>0.08878462404122946</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04115666983435166</v>
+        <v>0.03423693889104329</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3640,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1558293199.729072</v>
+        <v>1302776167.478956</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1759238272714725</v>
+        <v>0.1687206465108731</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04005229653183421</v>
+        <v>0.05536071263421034</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3675,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2651517524.100835</v>
+        <v>2464560494.778396</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1030931234700648</v>
+        <v>0.0950344169212734</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03676416752141359</v>
+        <v>0.03030874875284064</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3716,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3765171276.496034</v>
+        <v>3987598341.045404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08925255587195211</v>
+        <v>0.1052772063686808</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03372630829985688</v>
+        <v>0.04556475853436301</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>81</v>
+      </c>
+      <c r="J93" t="n">
+        <v>179</v>
+      </c>
+      <c r="K93" t="n">
+        <v>122.0035760039598</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3753,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2204467835.360412</v>
+        <v>1802217951.001456</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1118544736857137</v>
+        <v>0.1030355592743071</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03322735576160594</v>
+        <v>0.02879831031353719</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3782,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3114469266.164906</v>
+        <v>2426494636.32463</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09431967856083556</v>
+        <v>0.08969637881026823</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05053769206382937</v>
+        <v>0.03532715964128275</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3817,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2328099220.908237</v>
+        <v>2182958273.109579</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08649014686560426</v>
+        <v>0.1270569105242813</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03964224358302087</v>
+        <v>0.03662768447485401</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3852,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3834460810.549755</v>
+        <v>4857567513.219228</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1757539210047026</v>
+        <v>0.1621649324439954</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0274420081341835</v>
+        <v>0.02829087479401708</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>87</v>
+      </c>
+      <c r="J97" t="n">
+        <v>179</v>
+      </c>
+      <c r="K97" t="n">
+        <v>124.4510363379099</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3895,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3231133100.894491</v>
+        <v>3525081842.940751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09875727518558948</v>
+        <v>0.09081861099194087</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02600108319745441</v>
+        <v>0.03192991295497331</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44</v>
+      </c>
+      <c r="J98" t="n">
+        <v>179</v>
+      </c>
+      <c r="K98" t="n">
+        <v>88.64153808698964</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2535120756.481438</v>
+        <v>3048624196.160289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1124324553585502</v>
+        <v>0.1126066852141497</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02420933227412338</v>
+        <v>0.02627514039671112</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4541023769.999202</v>
+        <v>4433793768.739516</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1133940549580491</v>
+        <v>0.14746809749449</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01755013350552405</v>
+        <v>0.02591861757744926</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>75</v>
+      </c>
+      <c r="J100" t="n">
+        <v>179</v>
+      </c>
+      <c r="K100" t="n">
+        <v>120.0220770483396</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3181906531.745843</v>
+        <v>3439581519.073288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2190023931366817</v>
+        <v>0.2093190607935433</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05312822330914523</v>
+        <v>0.05499448480209839</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="n">
+        <v>95.52728313739355</v>
       </c>
     </row>
   </sheetData>
